--- a/saved_posts_local.xlsx
+++ b/saved_posts_local.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,720 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_142533_0_0.jpg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-09-24T14:25:33.859009</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_142534_1_0.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-09-24T14:25:35.225346</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_142957_0_0.jpg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-09-24T19:59:57.675890+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_142958_1_0.jpg</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-09-24T19:59:59.124945+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160209_0_0.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:10.306660+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160211_1_0.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:11.833545+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160212_2_0.jpg</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:13.163987+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160213_3_0.jpg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:14.864215+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160215_4_0.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:16.400418+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160217_5_0.jpg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:17.717112+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160218_6_0.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:19.109481+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160219_7_0.jpg</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:20.447188+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160221_8_0.jpg</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:21.844733+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160222_9_0.jpg</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:23.220199+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160223_10_0.jpg</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:24.576377+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160225_11_0.jpg</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:25.930645+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160226_12_0.jpg</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:27.355599+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160228_13_0.jpg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:28.722551+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160229_14_0.jpg</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:30.111953+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160230_15_0.webp</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:31.459216+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160232_16_0.webp</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:32.858700+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160233_17_0.webp</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:34.265251+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160235_18_0.webp</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:35.641592+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160236_19_0.webp</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:36.995013+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160237_20_0.webp</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:38.387449+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160239_21_0.jpg</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:39.733868+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160240_22_0.jpg</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:41.181969+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160241_23_0.jpg</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:42.627190+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160243_24_0.jpg</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:43.998352+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160244_25_0.jpg</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:45.337974+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160246_26_0.jpg</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:46.665738+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160247_27_0.webp</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:47.992839+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160248_28_0.webp</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:49.320382+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.threads.com/saved</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>c:\Users\Reena\Desktop\vishPipeLine_for_thread_promptGod\pictures\20250924_160250_29_0.webp</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-09-24T21:32:50.639508+05:30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
